--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B115727-E2BB-4208-BE7D-32C9D47BD9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEDAC38-233F-4287-B4E3-617B6D5206E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +76,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -295,99 +311,6 @@
   </si>
   <si>
     <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>S1aH1</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>elc_spv-DEU</t>
-  </si>
-  <si>
-    <t>S1aH2</t>
-  </si>
-  <si>
-    <t>S1aH3</t>
-  </si>
-  <si>
-    <t>S1aH4</t>
-  </si>
-  <si>
-    <t>S2aH1</t>
-  </si>
-  <si>
-    <t>S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH3</t>
-  </si>
-  <si>
-    <t>S2aH4</t>
-  </si>
-  <si>
-    <t>S3aH1</t>
-  </si>
-  <si>
-    <t>S3aH2</t>
-  </si>
-  <si>
-    <t>S3aH3</t>
-  </si>
-  <si>
-    <t>S3aH4</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>elc_won-DEU</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>S1aH2,S2aH3,S3aH3,S1aH3,S2aH2,S3aH2</t>
-  </si>
-  <si>
-    <t>S2aH1,S3aH1,S1aH4,S1aH1,S3aH4,S2aH4</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -880,7 +803,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -901,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -916,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -924,21 +847,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S3aH1,S1aH4,S1aH1,S3aH4,S2aH4</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -956,21 +879,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S3aH3,S1aH3,S2aH2,S3aH2</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -982,26 +905,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1029,551 +952,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1583,1050 +1506,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4279-0A8D-4C26-A7D4-3A81145A5945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38E5221-D033-488F-89D2-C8423A0EC064}">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
         <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD005D7-E127-45A3-88A5-E4D831913F09}">
-  <dimension ref="B2:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>3.25311E-2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4">
-        <v>0.19000722063625322</v>
-      </c>
-      <c r="J4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4">
-        <v>0.95029816876880036</v>
-      </c>
-      <c r="O4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5">
-        <v>4.8328089999999997E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5">
-        <v>2.5761901307164398E-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="O5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>0.57020062000000005</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6">
-        <v>0.19920991101645996</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6">
-        <v>8.4099424771755762E-2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7">
-        <v>0.21659282999999999</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7">
-        <v>0.19968144346764963</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8">
-        <v>7.1170888290330525E-2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9">
-        <v>2.6103900000000002E-3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9">
-        <v>8.8832560936529317E-3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10">
-        <v>8.1966860000000002E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10">
-        <v>6.4835712038328483E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11">
-        <v>1.3387329999999999E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11">
-        <v>7.4452683259668764E-2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12">
-        <v>5.5100154183571982E-2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13">
-        <v>6.9769786557876273E-3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>3.2240829999999998E-2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>4.7174326787787518E-2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15">
-        <v>2.1416500000000002E-3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15">
-        <v>5.6745524263169804E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A636B-50CA-41D7-BCE2-299AABE7F30F}">
-  <dimension ref="B2:O27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>0.24931506849315069</v>
-      </c>
-      <c r="C4">
-        <v>0.13818660965119461</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4">
-        <v>0.2003213339421451</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4">
-        <v>0.46785169922331682</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>3.1164383561643836E-2</v>
-      </c>
-      <c r="C5">
-        <v>3.9818014568779071E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5">
-        <v>3.5901739152849582E-2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5">
-        <v>0.22491251713067584</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>0.21815068493150686</v>
-      </c>
-      <c r="C6">
-        <v>0.28397484026551978</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>0.25114245655400896</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6">
-        <v>0.22165444791480216</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>0.24931506849315069</v>
-      </c>
-      <c r="C7">
-        <v>0.28596574099395872</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>0.25849999795517992</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7">
-        <v>0.31388903513288224</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C8">
-        <v>3.0876861497153366E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>4.3487016223008844E-2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8">
-        <v>0.33729701496143316</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C9">
-        <v>8.8970655263572278E-3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>7.8025678240701921E-3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9">
-        <v>0.13475836350908721</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>4.8744292237442921E-2</v>
-      </c>
-      <c r="C10">
-        <v>6.3452253685702203E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>5.4236921511738014E-2</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10">
-        <v>0.14931939789753557</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C11">
-        <v>6.3897106962020084E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>5.6504104916096538E-2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11">
-        <v>0.21589092123869102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>2.8310502283105023E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.5691519777241876E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12">
-        <v>2.4942998885035525E-2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12">
-        <v>0.26445797953675454</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>3.5388127853881279E-3</v>
-      </c>
-      <c r="C13">
-        <v>4.521459529788099E-3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13">
-        <v>4.3968656823916716E-3</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13">
-        <v>6.750385296878858E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>2.4771689497716895E-2</v>
-      </c>
-      <c r="C14">
-        <v>3.2246227282897846E-2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14">
-        <v>3.0675490343048433E-2</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14">
-        <v>8.5594267559709225E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>2.8310502283105023E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.2472300259387257E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15">
-        <v>3.2088507010427245E-2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15">
-        <v>0.14741365757121838</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16">
-        <v>0.24660293540907907</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17">
-        <v>3.1434420249626061E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18">
-        <v>0.22003142498376535</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19">
-        <v>0.24986525391468759</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20">
-        <v>5.5108565505625429E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21">
-        <v>7.021280837404051E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22">
-        <v>4.9127598628458231E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23">
-        <v>5.5838487549264883E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24">
-        <v>2.8000453240712094E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25">
-        <v>3.571774964491983E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26">
-        <v>2.4996673258739058E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27">
-        <v>2.8401131458146212E-2</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEDAC38-233F-4287-B4E3-617B6D5206E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B90EA2-B34B-45D0-855F-B4B286D01198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1506,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38E5221-D033-488F-89D2-C8423A0EC064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756E7AB9-A429-4BB7-82EE-A7DC1EEAA1DB}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555195EB-9D5D-4D4C-86A5-23422B46E42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{503C751F-9B0E-44ED-B84A-8D66868D4B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1902,13 +1902,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S2aH2,S1aH3,S1aH2,S2aH3,S3aH3,S3aH2</t>
+    <t>S3aH2,S2aH2,S1aH2,S2aH3,S3aH3,S1aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S3aH1,S2aH4,S1aH4,S2aH1,S1aH1,S3aH4</t>
+    <t>S1aH1,S3aH4,S1aH4,S2aH1,S2aH4,S3aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S3aH1,S2aH4,S1aH4,S2aH1,S1aH1,S3aH4</v>
+        <v>S1aH1,S3aH4,S1aH4,S2aH1,S2aH4,S3aH1</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S2aH2,S1aH3,S1aH2,S2aH3,S3aH3,S3aH2</v>
+        <v>S3aH2,S2aH2,S1aH2,S2aH3,S3aH3,S1aH3</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2559,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E476185F-FC98-4B6C-B102-346FFB28AB12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ADE49B-EB16-4895-BD26-C9E3CF8E8970}">
   <dimension ref="A9:AM2278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2785,7 +2785,7 @@
         <v>22</v>
       </c>
       <c r="AL11">
-        <v>1.0411103488310731</v>
+        <v>1.0411103488310727</v>
       </c>
       <c r="AM11" t="s">
         <v>628</v>
@@ -2871,7 +2871,7 @@
         <v>28</v>
       </c>
       <c r="AL12">
-        <v>8.4099424771755776E-2</v>
+        <v>8.4099424771755762E-2</v>
       </c>
       <c r="AM12" t="s">
         <v>628</v>
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="AL13">
-        <v>7.4790226397171367E-2</v>
+        <v>7.4790226397171353E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>628</v>

--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02290EF0-EE32-4E34-B8D5-2CD21B719E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA2B4D5B-11F7-41D0-B978-2CFAC8A65C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1446,13 +1446,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S3aH3,S1aH2,S2aH3,S2aH2,S3aH2,S1aH3</t>
+    <t>S3aH2,S1aH2,S2aH3,S1aH3,S2aH2,S3aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH4,S1aH1,S3aH4,S3aH1,S2aH1,S2aH4</t>
+    <t>S3aH1,S1aH1,S3aH4,S2aH1,S2aH4,S1aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1aH4,S1aH1,S3aH4,S3aH1,S2aH1,S2aH4</v>
+        <v>S3aH1,S1aH1,S3aH4,S2aH1,S2aH4,S1aH4</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S3aH3,S1aH2,S2aH3,S2aH2,S3aH2,S1aH3</v>
+        <v>S3aH2,S1aH2,S2aH3,S1aH3,S2aH2,S3aH3</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2103,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC44FF2-D058-4343-9221-093A23431751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E599295-0D93-4102-B9E3-D377C6711CD4}">
   <dimension ref="A9:AM2278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2412,10 +2412,10 @@
         <v>0.23085979479529573</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL12">
-        <v>1.0411103488310727</v>
+        <v>7.4790226397171353E-2</v>
       </c>
       <c r="AM12" t="s">
         <v>476</v>
@@ -2498,10 +2498,10 @@
         <v>0.24211159871336174</v>
       </c>
       <c r="AK13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL13">
-        <v>7.4790226397171353E-2</v>
+        <v>1.0411103488310727</v>
       </c>
       <c r="AM13" t="s">
         <v>476</v>
